--- a/IPC2024_base2010/indprod012024.xlsx
+++ b/IPC2024_base2010/indprod012024.xlsx
@@ -1356,7 +1356,7 @@
         <v>18</v>
       </c>
       <c r="D8">
-        <v>147.9003271814419</v>
+        <v>147.9273731885435</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1370,7 +1370,7 @@
         <v>19</v>
       </c>
       <c r="D9">
-        <v>158.3996818255547</v>
+        <v>158.6190176231645</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1454,7 +1454,7 @@
         <v>25</v>
       </c>
       <c r="D15">
-        <v>233.3707549195486</v>
+        <v>233.5612795917564</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2210,7 +2210,7 @@
         <v>79</v>
       </c>
       <c r="D69">
-        <v>142.5935404137625</v>
+        <v>142.5992080744049</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2308,7 +2308,7 @@
         <v>86</v>
       </c>
       <c r="D76">
-        <v>120.2207035011956</v>
+        <v>120.1722647990754</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -4730,7 +4730,7 @@
         <v>259</v>
       </c>
       <c r="D249">
-        <v>185.1160033242662</v>
+        <v>186.0485040083801</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5276,7 +5276,7 @@
         <v>19</v>
       </c>
       <c r="D288">
-        <v>185.4567031953103</v>
+        <v>186.0463281095524</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5360,7 +5360,7 @@
         <v>25</v>
       </c>
       <c r="D294">
-        <v>177.2180892115011</v>
+        <v>176.8764744187008</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -6116,7 +6116,7 @@
         <v>79</v>
       </c>
       <c r="D348">
-        <v>174.7611532008887</v>
+        <v>174.7989628745554</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6214,7 +6214,7 @@
         <v>86</v>
       </c>
       <c r="D355">
-        <v>122.2694927896828</v>
+        <v>122.184196579718</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -8636,7 +8636,7 @@
         <v>259</v>
       </c>
       <c r="D528">
-        <v>263.4349801055556</v>
+        <v>265.5914884344282</v>
       </c>
     </row>
     <row r="529" spans="1:4">
@@ -9168,7 +9168,7 @@
         <v>18</v>
       </c>
       <c r="D566">
-        <v>137.0618796106162</v>
+        <v>136.6016706541685</v>
       </c>
     </row>
     <row r="567" spans="1:4">
@@ -9182,7 +9182,7 @@
         <v>19</v>
       </c>
       <c r="D567">
-        <v>137.7136488342177</v>
+        <v>138.0949940428612</v>
       </c>
     </row>
     <row r="568" spans="1:4">
@@ -10022,7 +10022,7 @@
         <v>79</v>
       </c>
       <c r="D627">
-        <v>117.9987078987871</v>
+        <v>117.9986597484812</v>
       </c>
     </row>
     <row r="628" spans="1:4">
@@ -10120,7 +10120,7 @@
         <v>86</v>
       </c>
       <c r="D634">
-        <v>113.4735693744899</v>
+        <v>113.4830921012877</v>
       </c>
     </row>
     <row r="635" spans="1:4">
@@ -13088,7 +13088,7 @@
         <v>19</v>
       </c>
       <c r="D846">
-        <v>142.2938986892838</v>
+        <v>142.640659379394</v>
       </c>
     </row>
     <row r="847" spans="1:4">
@@ -13172,7 +13172,7 @@
         <v>25</v>
       </c>
       <c r="D852">
-        <v>231.2008723125595</v>
+        <v>230.0113784243924</v>
       </c>
     </row>
     <row r="853" spans="1:4">
@@ -14026,7 +14026,7 @@
         <v>86</v>
       </c>
       <c r="D913">
-        <v>127.005525631557</v>
+        <v>126.8292482616633</v>
       </c>
     </row>
     <row r="914" spans="1:4">
@@ -16448,7 +16448,7 @@
         <v>259</v>
       </c>
       <c r="D1086">
-        <v>173.4871448498928</v>
+        <v>173.2082811441187</v>
       </c>
     </row>
     <row r="1087" spans="1:4">
@@ -16980,7 +16980,7 @@
         <v>18</v>
       </c>
       <c r="D1124">
-        <v>151.9955030873283</v>
+        <v>153.4186368593072</v>
       </c>
     </row>
     <row r="1125" spans="1:4">
@@ -16994,7 +16994,7 @@
         <v>19</v>
       </c>
       <c r="D1125">
-        <v>148.2667233591285</v>
+        <v>148.0272327162357</v>
       </c>
     </row>
     <row r="1126" spans="1:4">
@@ -17834,7 +17834,7 @@
         <v>79</v>
       </c>
       <c r="D1185">
-        <v>133.5926277523808</v>
+        <v>133.5925711752921</v>
       </c>
     </row>
     <row r="1186" spans="1:4">
@@ -20354,7 +20354,7 @@
         <v>259</v>
       </c>
       <c r="D1365">
-        <v>158.2399563903823</v>
+        <v>155.4159145372527</v>
       </c>
     </row>
     <row r="1366" spans="1:4">
@@ -20900,7 +20900,7 @@
         <v>19</v>
       </c>
       <c r="D1404">
-        <v>155.6990604563116</v>
+        <v>155.7097319594604</v>
       </c>
     </row>
     <row r="1405" spans="1:4">
@@ -20984,7 +20984,7 @@
         <v>25</v>
       </c>
       <c r="D1410">
-        <v>317.9823362117065</v>
+        <v>318.2577887309094</v>
       </c>
     </row>
     <row r="1411" spans="1:4">
@@ -21740,7 +21740,7 @@
         <v>79</v>
       </c>
       <c r="D1464">
-        <v>139.4967127168318</v>
+        <v>139.4947871778369</v>
       </c>
     </row>
     <row r="1465" spans="1:4">
@@ -24260,7 +24260,7 @@
         <v>259</v>
       </c>
       <c r="D1644">
-        <v>158.3442489176015</v>
+        <v>160.031639092735</v>
       </c>
     </row>
     <row r="1645" spans="1:4">
@@ -24792,7 +24792,7 @@
         <v>18</v>
       </c>
       <c r="D1682">
-        <v>141.6875200749772</v>
+        <v>140.9983331322492</v>
       </c>
     </row>
     <row r="1683" spans="1:4">
@@ -24806,7 +24806,7 @@
         <v>19</v>
       </c>
       <c r="D1683">
-        <v>139.4921444004264</v>
+        <v>139.5693424713373</v>
       </c>
     </row>
     <row r="1684" spans="1:4">
@@ -24890,7 +24890,7 @@
         <v>25</v>
       </c>
       <c r="D1689">
-        <v>304.4790403125947</v>
+        <v>306.5644308694308</v>
       </c>
     </row>
     <row r="1690" spans="1:4">
@@ -25646,7 +25646,7 @@
         <v>79</v>
       </c>
       <c r="D1743">
-        <v>135.0442460140119</v>
+        <v>135.0472015106852</v>
       </c>
     </row>
     <row r="1744" spans="1:4">
@@ -28166,7 +28166,7 @@
         <v>259</v>
       </c>
       <c r="D1923">
-        <v>158.4559314514323</v>
+        <v>158.9554715452126</v>
       </c>
     </row>
     <row r="1924" spans="1:4">
@@ -28698,7 +28698,7 @@
         <v>18</v>
       </c>
       <c r="D1961">
-        <v>152.023849707386</v>
+        <v>152.7769926531466</v>
       </c>
     </row>
     <row r="1962" spans="1:4">
@@ -28712,7 +28712,7 @@
         <v>19</v>
       </c>
       <c r="D1962">
-        <v>170.7553412156301</v>
+        <v>170.678445024371</v>
       </c>
     </row>
     <row r="1963" spans="1:4">
@@ -28796,7 +28796,7 @@
         <v>25</v>
       </c>
       <c r="D1968">
-        <v>151.9341024988335</v>
+        <v>150.1499372016259</v>
       </c>
     </row>
     <row r="1969" spans="1:4">
@@ -29552,7 +29552,7 @@
         <v>79</v>
       </c>
       <c r="D2022">
-        <v>186.2210644652045</v>
+        <v>186.2207853079836</v>
       </c>
     </row>
     <row r="2023" spans="1:4">
@@ -32072,7 +32072,7 @@
         <v>259</v>
       </c>
       <c r="D2202">
-        <v>180.5885923078557</v>
+        <v>183.0218045505881</v>
       </c>
     </row>
     <row r="2203" spans="1:4">
@@ -32604,7 +32604,7 @@
         <v>18</v>
       </c>
       <c r="D2240">
-        <v>134.579872</v>
+        <v>134.26435253207</v>
       </c>
     </row>
     <row r="2241" spans="1:4">
@@ -32618,7 +32618,7 @@
         <v>19</v>
       </c>
       <c r="D2241">
-        <v>135.3627894397736</v>
+        <v>135.3261199261491</v>
       </c>
     </row>
     <row r="2242" spans="1:4">
@@ -32702,7 +32702,7 @@
         <v>25</v>
       </c>
       <c r="D2247">
-        <v>230.7922101459876</v>
+        <v>230.44635653179</v>
       </c>
     </row>
     <row r="2248" spans="1:4">
@@ -33458,7 +33458,7 @@
         <v>79</v>
       </c>
       <c r="D2301">
-        <v>127.930982553335</v>
+        <v>127.9309845062132</v>
       </c>
     </row>
     <row r="2302" spans="1:4">
@@ -33556,7 +33556,7 @@
         <v>86</v>
       </c>
       <c r="D2308">
-        <v>117.6155250418561</v>
+        <v>117.6549083122283</v>
       </c>
     </row>
     <row r="2309" spans="1:4">
@@ -35978,7 +35978,7 @@
         <v>259</v>
       </c>
       <c r="D2481">
-        <v>176.2189083710249</v>
+        <v>177.1449226348251</v>
       </c>
     </row>
     <row r="2482" spans="1:4">

--- a/IPC2024_base2010/indprod012024.xlsx
+++ b/IPC2024_base2010/indprod012024.xlsx
@@ -1328,7 +1328,7 @@
         <v>16</v>
       </c>
       <c r="D6">
-        <v>190.087940324021</v>
+        <v>190.3359896361605</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1342,7 +1342,7 @@
         <v>17</v>
       </c>
       <c r="D7">
-        <v>198.0114463684264</v>
+        <v>198.2791271958211</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5234,7 +5234,7 @@
         <v>16</v>
       </c>
       <c r="D285">
-        <v>173.5723788047015</v>
+        <v>173.5652744791596</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5248,7 +5248,7 @@
         <v>17</v>
       </c>
       <c r="D286">
-        <v>243.0164654654886</v>
+        <v>244.7102549555752</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -9140,7 +9140,7 @@
         <v>16</v>
       </c>
       <c r="D564">
-        <v>241.1254348339282</v>
+        <v>240.8284380271677</v>
       </c>
     </row>
     <row r="565" spans="1:4">
@@ -13046,7 +13046,7 @@
         <v>16</v>
       </c>
       <c r="D843">
-        <v>200.2405954267168</v>
+        <v>200.9999167787311</v>
       </c>
     </row>
     <row r="844" spans="1:4">
@@ -13060,7 +13060,7 @@
         <v>17</v>
       </c>
       <c r="D844">
-        <v>171.7851137778225</v>
+        <v>172.1996186267534</v>
       </c>
     </row>
     <row r="845" spans="1:4">
@@ -16952,7 +16952,7 @@
         <v>16</v>
       </c>
       <c r="D1122">
-        <v>264.1888583023238</v>
+        <v>266.5457057713616</v>
       </c>
     </row>
     <row r="1123" spans="1:4">
@@ -16966,7 +16966,7 @@
         <v>17</v>
       </c>
       <c r="D1123">
-        <v>191.1117909213453</v>
+        <v>191.1636876417056</v>
       </c>
     </row>
     <row r="1124" spans="1:4">
@@ -20858,7 +20858,7 @@
         <v>16</v>
       </c>
       <c r="D1401">
-        <v>219.5293400352014</v>
+        <v>219.1166896190872</v>
       </c>
     </row>
     <row r="1402" spans="1:4">
@@ -20872,7 +20872,7 @@
         <v>17</v>
       </c>
       <c r="D1402">
-        <v>158.2333680860372</v>
+        <v>156.3108675536717</v>
       </c>
     </row>
     <row r="1403" spans="1:4">
@@ -24764,7 +24764,7 @@
         <v>16</v>
       </c>
       <c r="D1680">
-        <v>163.8379432300179</v>
+        <v>164.1119090924022</v>
       </c>
     </row>
     <row r="1681" spans="1:4">
@@ -24778,7 +24778,7 @@
         <v>17</v>
       </c>
       <c r="D1681">
-        <v>176.1061209698984</v>
+        <v>175.7435351056529</v>
       </c>
     </row>
     <row r="1682" spans="1:4">
@@ -28670,7 +28670,7 @@
         <v>16</v>
       </c>
       <c r="D1959">
-        <v>168.660414255616</v>
+        <v>168.9809378830707</v>
       </c>
     </row>
     <row r="1960" spans="1:4">
@@ -28684,7 +28684,7 @@
         <v>17</v>
       </c>
       <c r="D1960">
-        <v>217.9757797435635</v>
+        <v>217.9272451486089</v>
       </c>
     </row>
     <row r="1961" spans="1:4">
@@ -32576,7 +32576,7 @@
         <v>16</v>
       </c>
       <c r="D2238">
-        <v>171.8462465116397</v>
+        <v>172.1362289380102</v>
       </c>
     </row>
     <row r="2239" spans="1:4">
@@ -32590,7 +32590,7 @@
         <v>17</v>
       </c>
       <c r="D2239">
-        <v>132.6182682286996</v>
+        <v>132.699546931678</v>
       </c>
     </row>
     <row r="2240" spans="1:4">

--- a/IPC2024_base2010/indprod012024.xlsx
+++ b/IPC2024_base2010/indprod012024.xlsx
@@ -1314,7 +1314,7 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>142.609116424998</v>
+        <v>142.6410245974315</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5220,7 +5220,7 @@
         <v>15</v>
       </c>
       <c r="D284">
-        <v>151.170511204825</v>
+        <v>151.3028295585259</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -9126,7 +9126,7 @@
         <v>15</v>
       </c>
       <c r="D563">
-        <v>128.7387859062184</v>
+        <v>128.7338475712303</v>
       </c>
     </row>
     <row r="564" spans="1:4">
@@ -13032,7 +13032,7 @@
         <v>15</v>
       </c>
       <c r="D842">
-        <v>146.9251308143405</v>
+        <v>146.9144491933484</v>
       </c>
     </row>
     <row r="843" spans="1:4">
@@ -16938,7 +16938,7 @@
         <v>15</v>
       </c>
       <c r="D1121">
-        <v>167.9919506781443</v>
+        <v>167.9846686772052</v>
       </c>
     </row>
     <row r="1122" spans="1:4">
@@ -20844,7 +20844,7 @@
         <v>15</v>
       </c>
       <c r="D1400">
-        <v>159.030283103308</v>
+        <v>159.084139593558</v>
       </c>
     </row>
     <row r="1401" spans="1:4">
@@ -24750,7 +24750,7 @@
         <v>15</v>
       </c>
       <c r="D1679">
-        <v>129.5950545576132</v>
+        <v>129.6087893243509</v>
       </c>
     </row>
     <row r="1680" spans="1:4">
@@ -28656,7 +28656,7 @@
         <v>15</v>
       </c>
       <c r="D1958">
-        <v>132.4319079805601</v>
+        <v>132.4293537302877</v>
       </c>
     </row>
     <row r="1959" spans="1:4">
@@ -32562,7 +32562,7 @@
         <v>15</v>
       </c>
       <c r="D2237">
-        <v>151.018954981488</v>
+        <v>151.0150310385249</v>
       </c>
     </row>
     <row r="2238" spans="1:4">

--- a/IPC2024_base2010/indprod012024.xlsx
+++ b/IPC2024_base2010/indprod012024.xlsx
@@ -1944,7 +1944,7 @@
         <v>60</v>
       </c>
       <c r="D50">
-        <v>165.2542732150683</v>
+        <v>165.3367101180076</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2294,7 +2294,7 @@
         <v>85</v>
       </c>
       <c r="D75">
-        <v>140.8076285891039</v>
+        <v>141.5601592258895</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -5850,7 +5850,7 @@
         <v>60</v>
       </c>
       <c r="D329">
-        <v>152.2519083451283</v>
+        <v>152.7181927782706</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6200,7 +6200,7 @@
         <v>85</v>
       </c>
       <c r="D354">
-        <v>168.2715808438294</v>
+        <v>171.8237759893027</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -9756,7 +9756,7 @@
         <v>60</v>
       </c>
       <c r="D608">
-        <v>172.9198110227766</v>
+        <v>172.787332844601</v>
       </c>
     </row>
     <row r="609" spans="1:4">
@@ -10106,7 +10106,7 @@
         <v>85</v>
       </c>
       <c r="D633">
-        <v>124.1573780860072</v>
+        <v>125.7243557113956</v>
       </c>
     </row>
     <row r="634" spans="1:4">
@@ -13662,7 +13662,7 @@
         <v>60</v>
       </c>
       <c r="D887">
-        <v>172.6491086531949</v>
+        <v>172.2482375040532</v>
       </c>
     </row>
     <row r="888" spans="1:4">
@@ -14012,7 +14012,7 @@
         <v>85</v>
       </c>
       <c r="D912">
-        <v>137.2395036163105</v>
+        <v>135.7479554184656</v>
       </c>
     </row>
     <row r="913" spans="1:4">
@@ -17918,7 +17918,7 @@
         <v>85</v>
       </c>
       <c r="D1191">
-        <v>138.7906147757049</v>
+        <v>139.1327072268563</v>
       </c>
     </row>
     <row r="1192" spans="1:4">
@@ -21474,7 +21474,7 @@
         <v>60</v>
       </c>
       <c r="D1445">
-        <v>151.2106033196632</v>
+        <v>151.4992180489861</v>
       </c>
     </row>
     <row r="1446" spans="1:4">
@@ -21824,7 +21824,7 @@
         <v>85</v>
       </c>
       <c r="D1470">
-        <v>125.4704209120231</v>
+        <v>125.448684797532</v>
       </c>
     </row>
     <row r="1471" spans="1:4">
@@ -25380,7 +25380,7 @@
         <v>60</v>
       </c>
       <c r="D1724">
-        <v>162.6912319621947</v>
+        <v>162.5870107297118</v>
       </c>
     </row>
     <row r="1725" spans="1:4">
@@ -25730,7 +25730,7 @@
         <v>85</v>
       </c>
       <c r="D1749">
-        <v>131.2203030049347</v>
+        <v>131.0396067248711</v>
       </c>
     </row>
     <row r="1750" spans="1:4">
@@ -29286,7 +29286,7 @@
         <v>60</v>
       </c>
       <c r="D2003">
-        <v>165.3809194010705</v>
+        <v>165.5780072972878</v>
       </c>
     </row>
     <row r="2004" spans="1:4">
@@ -29636,7 +29636,7 @@
         <v>85</v>
       </c>
       <c r="D2028">
-        <v>170.1912357657236</v>
+        <v>170.5990971055394</v>
       </c>
     </row>
     <row r="2029" spans="1:4">
@@ -33192,7 +33192,7 @@
         <v>60</v>
       </c>
       <c r="D2282">
-        <v>176.5390874889239</v>
+        <v>176.9833441233624</v>
       </c>
     </row>
     <row r="2283" spans="1:4">
@@ -33542,7 +33542,7 @@
         <v>85</v>
       </c>
       <c r="D2307">
-        <v>119.9849554961607</v>
+        <v>120.0532543521781</v>
       </c>
     </row>
     <row r="2308" spans="1:4">

--- a/IPC2024_base2010/indprod012024.xlsx
+++ b/IPC2024_base2010/indprod012024.xlsx
@@ -1356,7 +1356,7 @@
         <v>18</v>
       </c>
       <c r="D8">
-        <v>147.9273731885435</v>
+        <v>147.9076315378002</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1426,7 +1426,7 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>154.8994722502505</v>
+        <v>154.7281020174519</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1510,7 +1510,7 @@
         <v>29</v>
       </c>
       <c r="D19">
-        <v>219.6116871005472</v>
+        <v>354.8667078045926</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1650,7 +1650,7 @@
         <v>39</v>
       </c>
       <c r="D29">
-        <v>170.5740634892911</v>
+        <v>202.7018195133775</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4492,7 +4492,7 @@
         <v>242</v>
       </c>
       <c r="D232">
-        <v>121.9404225772253</v>
+        <v>121.7977724244591</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5332,7 +5332,7 @@
         <v>23</v>
       </c>
       <c r="D292">
-        <v>146.5641594955199</v>
+        <v>145.7307621900677</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -8398,7 +8398,7 @@
         <v>242</v>
       </c>
       <c r="D511">
-        <v>120.8859928697626</v>
+        <v>120.6244824935759</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -9168,7 +9168,7 @@
         <v>18</v>
       </c>
       <c r="D566">
-        <v>136.6016706541685</v>
+        <v>136.6526427577243</v>
       </c>
     </row>
     <row r="567" spans="1:4">
@@ -13368,7 +13368,7 @@
         <v>39</v>
       </c>
       <c r="D866">
-        <v>131.9166615512248</v>
+        <v>413.0712547918031</v>
       </c>
     </row>
     <row r="867" spans="1:4">
@@ -16980,7 +16980,7 @@
         <v>18</v>
       </c>
       <c r="D1124">
-        <v>153.4186368593072</v>
+        <v>153.0096998379832</v>
       </c>
     </row>
     <row r="1125" spans="1:4">
@@ -17134,7 +17134,7 @@
         <v>29</v>
       </c>
       <c r="D1135">
-        <v>412.7208137831395</v>
+        <v>1167.375097709941</v>
       </c>
     </row>
     <row r="1136" spans="1:4">
@@ -20956,7 +20956,7 @@
         <v>23</v>
       </c>
       <c r="D1408">
-        <v>150.3022488571152</v>
+        <v>149.9149588333875</v>
       </c>
     </row>
     <row r="1409" spans="1:4">
@@ -24792,7 +24792,7 @@
         <v>18</v>
       </c>
       <c r="D1682">
-        <v>140.9983331322492</v>
+        <v>141.0204619669011</v>
       </c>
     </row>
     <row r="1683" spans="1:4">
@@ -24862,7 +24862,7 @@
         <v>23</v>
       </c>
       <c r="D1687">
-        <v>149.6096813431567</v>
+        <v>148.8488885820562</v>
       </c>
     </row>
     <row r="1688" spans="1:4">
@@ -28768,7 +28768,7 @@
         <v>23</v>
       </c>
       <c r="D1966">
-        <v>168.9360940068493</v>
+        <v>168.8249576994628</v>
       </c>
     </row>
     <row r="1967" spans="1:4">
@@ -32674,7 +32674,7 @@
         <v>23</v>
       </c>
       <c r="D2245">
-        <v>158.8509291785962</v>
+        <v>166.7360129192438</v>
       </c>
     </row>
     <row r="2246" spans="1:4">
